--- a/eda/vlsp2016/dev/column-2-analyze.xlsx
+++ b/eda/vlsp2016/dev/column-2-analyze.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>2</t>
   </si>
@@ -22,73 +22,64 @@
     <t>count</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>B-AP</t>
   </si>
   <si>
-    <t>A, Ni</t>
-  </si>
-  <si>
     <t>nhiều, hơn, khác, cùng, nhỏ, nhất, lớn, gần, đầy, vui</t>
   </si>
   <si>
-    <t>B-IP</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>ơi, Ồ</t>
+    <t>A, Np</t>
   </si>
   <si>
     <t>B-NP</t>
   </si>
   <si>
-    <t>N, P, M, NNP, Ns, L, Nc, Nu, Ny, Nb</t>
-  </si>
-  <si>
     <t>một, những, người, mình, tôi, đó, khi, chị, các, năm</t>
   </si>
   <si>
+    <t>N, P, Nc, M, Np, L, Nu, Ny, FW, A</t>
+  </si>
+  <si>
     <t>B-PP</t>
   </si>
   <si>
+    <t>của, trong, với, cho, ở, để, về, đến, từ, trên</t>
+  </si>
+  <si>
     <t>E</t>
   </si>
   <si>
-    <t>của, trong, với, cho, ở, để, về, đến, từ, trên</t>
-  </si>
-  <si>
     <t>B-VP</t>
   </si>
   <si>
+    <t>có, là, đi, được, ra, lại, làm, nói, phải, biết</t>
+  </si>
+  <si>
     <t>V</t>
   </si>
   <si>
-    <t>có, là, đi, được, ra, lại, làm, nói, phải, biết</t>
-  </si>
-  <si>
     <t>I-NP</t>
   </si>
   <si>
-    <t>NNP, N, M, Ny, CH, V, A, Nb, Ns, FW</t>
-  </si>
-  <si>
-    <t>HCM, Văn, Thị, Trâm, Nam, Trường Sơn, Lao Bảo, Bắc, VN, "</t>
+    <t>HCM, Văn, Thị, Nam, Trâm, Trường Sơn, Lao Bảo, Bắc, VN, Bạch</t>
+  </si>
+  <si>
+    <t>Np, N, M, Ny, CH, V, A, FW, Nc, E</t>
   </si>
   <si>
     <t>O</t>
   </si>
   <si>
-    <t>CH, R, C, Cc, T, X, I, Z, M</t>
-  </si>
-  <si>
     <t>,, ., ", đã, và, không, ..., cũng, được, :</t>
+  </si>
+  <si>
+    <t>CH, R, C, T, X, I, Z, M</t>
   </si>
 </sst>
 </file>
@@ -437,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +469,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>17423</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -492,7 +483,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>17423</v>
+        <v>2818</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -506,7 +497,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>2818</v>
+        <v>8715</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -520,7 +511,7 @@
         <v>16</v>
       </c>
       <c r="B6" t="n">
-        <v>8715</v>
+        <v>827</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -534,27 +525,13 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>827</v>
+        <v>11052</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="n">
-        <v>11050</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
